--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9791487795114873</v>
+        <v>1.083054266099785</v>
       </c>
       <c r="D2">
-        <v>0.3276475323178412</v>
+        <v>0.2905124201224141</v>
       </c>
       <c r="E2">
         <v>0.9108697091885579</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.303123455420962</v>
+        <v>1.160630018492204</v>
       </c>
       <c r="D3">
-        <v>0.1927112928487951</v>
+        <v>0.2582322809807329</v>
       </c>
       <c r="E3">
         <v>0.9108697091885579</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.418816441955209</v>
+        <v>2.088298675658246</v>
       </c>
       <c r="D4">
-        <v>0.01567683184955149</v>
+        <v>0.04855903745225643</v>
       </c>
       <c r="E4">
         <v>0.9108697091885579</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4.167166005245561</v>
+        <v>3.191528809958149</v>
       </c>
       <c r="D5">
-        <v>3.241048191493512E-05</v>
+        <v>0.004215345639827062</v>
       </c>
       <c r="E5">
         <v>0.9108697091885579</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3815404282786375</v>
+        <v>0.3534512444611433</v>
       </c>
       <c r="D6">
-        <v>0.7028505559340292</v>
+        <v>0.7271146992395963</v>
       </c>
       <c r="E6">
         <v>0.8964757287889993</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.320288164848351</v>
+        <v>1.543779111424143</v>
       </c>
       <c r="D7">
-        <v>0.186918778732571</v>
+        <v>0.136905425425808</v>
       </c>
       <c r="E7">
         <v>0.8964757287889993</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.753147241540391</v>
+        <v>2.271434376891581</v>
       </c>
       <c r="D8">
-        <v>0.005966108684068772</v>
+        <v>0.03325278654351571</v>
       </c>
       <c r="E8">
         <v>0.8964757287889993</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.8831858448287732</v>
+        <v>0.7820604092887072</v>
       </c>
       <c r="D9">
-        <v>0.3772623035415916</v>
+        <v>0.4425154555699029</v>
       </c>
       <c r="E9">
         <v>0.8901737773126706</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.663727615407997</v>
+        <v>1.957663613524952</v>
       </c>
       <c r="D10">
-        <v>0.007801921837190529</v>
+        <v>0.06307346878701292</v>
       </c>
       <c r="E10">
         <v>0.8901737773126706</v>
@@ -661,7 +661,7 @@
         <v>0.8555995895152424</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.658135278836129</v>
+        <v>1.415353912214771</v>
       </c>
       <c r="D11">
-        <v>0.09747695908889598</v>
+        <v>0.170965476135875</v>
       </c>
       <c r="E11">
         <v>0.8775964728887792</v>
